--- a/Einführung in die Forschungsmethoden der Psychologie und Psychotherapie_Termine.xlsx
+++ b/Einführung in die Forschungsmethoden der Psychologie und Psychotherapie_Termine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephangoerigk/Desktop/Universität/CFH/Lehre/Bachelor/Einführung in die Forschungsmethoden der Psychologie und Psychotherapie/EFPP_Folien_SS23/EFPP_Folien_SS23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caro\Documents\CFH\Lehre\EFPP_Folien_SS23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1891210B-8CDC-C64D-98E0-7C9E72D7D116}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F99845-2D81-4C45-9A71-C462074BCB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38960" yWindow="3480" windowWidth="28240" windowHeight="16560" xr2:uid="{403CBBCA-A596-E442-9191-812ECD39B1A7}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11325" xr2:uid="{403CBBCA-A596-E442-9191-812ECD39B1A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -45,9 +45,6 @@
     <t>MRT Besuch?</t>
   </si>
   <si>
-    <t>Leib-Seele Problematik</t>
-  </si>
-  <si>
     <t>Bio-psychologische Methoden</t>
   </si>
   <si>
@@ -57,15 +54,6 @@
     <t>Digitale Messmethoden</t>
   </si>
   <si>
-    <t>Ansorge 3</t>
-  </si>
-  <si>
-    <t>Ansorge Buch</t>
-  </si>
-  <si>
-    <t>Biv. Assoziation, Moderation, Mediation, Pfadanalyse, Strukturgleichungsmodelle, Netzwerke</t>
-  </si>
-  <si>
     <t>Big Data und Machine-Learning</t>
   </si>
   <si>
@@ -81,33 +69,21 @@
     <t>Kritik - Fisch</t>
   </si>
   <si>
-    <t>Tests, Fragebögen, Reaktionszeiten</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=rJjHjnzmvDI</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=tZcKT4l_JZk</t>
   </si>
   <si>
-    <t>Intelligenz Persönlichkeit</t>
-  </si>
-  <si>
     <t>Anschauungsbeispiele</t>
   </si>
   <si>
     <t>Paradigmengeschichte - Menschenbild bestimmt Methode</t>
   </si>
   <si>
-    <t>Alternativerklärungen und Notwendigkeit von Kontrollbedingungen</t>
-  </si>
-  <si>
     <t>Forschungsethik</t>
   </si>
   <si>
-    <t>Erfragen und Beobachten, manifest latent; Wie erreicht man Reliabilität und Validität</t>
-  </si>
-  <si>
     <t>Messen in der Psychologie - manifest</t>
   </si>
   <si>
@@ -120,13 +96,13 @@
     <t>Freie Spitze und Fragen</t>
   </si>
   <si>
-    <t>Quellen</t>
-  </si>
-  <si>
     <t>Wissenschafts- und Erkenntnistheorie</t>
   </si>
   <si>
     <t xml:space="preserve">Wie ist Psychologie als Wissenschaft möglich? </t>
+  </si>
+  <si>
+    <t>Leib-Seele Problematik ODER Evaluationsforschung ODER Puffer</t>
   </si>
 </sst>
 </file>
@@ -490,22 +466,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C9749B-DB69-4840-8C47-7993253605D0}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="65.6640625" customWidth="1"/>
+    <col min="3" max="3" width="65.625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.1640625" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.625" customWidth="1"/>
+    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="12" max="12" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -515,228 +491,204 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>45028</v>
+        <v>45212</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>45035</v>
+        <v>45219</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>45042</v>
+        <v>45226</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>45049</v>
+        <v>45233</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>45056</v>
+        <v>45240</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>45063</v>
+        <v>45247</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>45077</v>
+        <v>45254</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>45084</v>
+        <v>45268</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>45091</v>
+        <v>45275</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>45098</v>
+        <v>45282</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>45105</v>
+        <v>45303</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>45112</v>
+        <v>45310</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>45119</v>
+        <v>45317</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>45126</v>
+        <v>45324</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
